--- a/clase_8/planificacion_clase_8_9.xlsx
+++ b/clase_8/planificacion_clase_8_9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODER\c31530\clase8y9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODER\C29315\clase_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F04DDBE-5EBC-4992-A2A9-E183B73400BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20194F84-2656-4610-8CAD-89936C506428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{4678ADDD-6003-4584-AAD0-271243040587}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" xr2:uid="{4678ADDD-6003-4584-AAD0-271243040587}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="64">
   <si>
     <t>sabado</t>
   </si>
@@ -96,9 +96,6 @@
     <t>solo leer las ppts y explicar</t>
   </si>
   <si>
-    <t>propieades en gral del padre</t>
-  </si>
-  <si>
     <t>3 ppt</t>
   </si>
   <si>
@@ -205,13 +202,28 @@
   </si>
   <si>
     <t>merge y dudas</t>
+  </si>
+  <si>
+    <t>5mints</t>
+  </si>
+  <si>
+    <t>25 mints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m y j </t>
+  </si>
+  <si>
+    <t xml:space="preserve">animaciones </t>
+  </si>
+  <si>
+    <t>clase 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +240,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -300,6 +325,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,34 +642,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC1F58-BB36-4232-85F2-554139CF5228}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -660,12 +688,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
-        <v>0.47916666666666669</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -680,119 +708,119 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="C5" s="3">
-        <v>0.49652777777777773</v>
+        <v>0.80902777777777779</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C8" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>0.53472222222222221</v>
       </c>
@@ -803,19 +831,19 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>0.53819444444444442</v>
       </c>
@@ -829,16 +857,16 @@
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>0.55208333333333337</v>
       </c>
@@ -852,198 +880,182 @@
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.59375</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>0.59375</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="H15" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.59375</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>0.59375</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
